--- a/Book3.xlsx
+++ b/Book3.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent.Zhong\Documents\GitHub\Label_Star_Info\File Uploader\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent.Zhong\Documents\GitHub\Label_Star\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B070C60-5EED-4603-A794-D2F84C08681A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03F4B24-D14D-408C-9DCC-74512957346F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{805FFD89-7D72-42C8-B567-9FE11B26B882}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet11" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet11!$A$1:$O$501</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -4806,8 +4809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C783D94-EA43-49BC-B438-04A202BA195F}">
   <dimension ref="A1:O501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+    <sheetView tabSelected="1" topLeftCell="A464" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:O501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28360,6 +28363,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O501" xr:uid="{1C783D94-EA43-49BC-B438-04A202BA195F}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>